--- a/burndown.xlsx
+++ b/burndown.xlsx
@@ -11,13 +11,14 @@
     <sheet name="PCA Burndown Rolled Up" sheetId="2" r:id="rId2"/>
     <sheet name="SCA Burndown" sheetId="3" r:id="rId3"/>
     <sheet name="PCA Status Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="SCA Status Burndown" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
   <si>
     <t>2018 Week 18</t>
   </si>
@@ -26,6 +27,9 @@
   </si>
   <si>
     <t>2018 Week 20</t>
+  </si>
+  <si>
+    <t>2018 Week 21</t>
   </si>
   <si>
     <t>IoT</t>
@@ -407,13 +411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,10 +427,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1165</v>
@@ -437,10 +444,13 @@
       <c r="D2">
         <v>1138</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>579</v>
@@ -451,10 +461,13 @@
       <c r="D3">
         <v>579</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -465,10 +478,13 @@
       <c r="D4">
         <v>1987</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>300</v>
@@ -479,10 +495,13 @@
       <c r="D5">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1662</v>
@@ -493,10 +512,13 @@
       <c r="D6">
         <v>1405</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>5706</v>
@@ -506,6 +528,9 @@
       </c>
       <c r="D7">
         <v>5376</v>
+      </c>
+      <c r="E7">
+        <v>5190</v>
       </c>
     </row>
   </sheetData>
@@ -515,18 +540,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -537,10 +562,13 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -557,10 +585,13 @@
       <c r="F2">
         <v>257</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -577,10 +608,13 @@
       <c r="F3">
         <v>407</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -597,10 +631,13 @@
       <c r="F4">
         <v>428</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -617,10 +654,13 @@
       <c r="F5">
         <v>188</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -637,10 +677,13 @@
       <c r="F6">
         <v>278</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2173</v>
@@ -656,6 +699,9 @@
       </c>
       <c r="F7">
         <v>1558</v>
+      </c>
+      <c r="G7">
+        <v>1554</v>
       </c>
     </row>
   </sheetData>
@@ -665,18 +711,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -687,10 +733,13 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -707,10 +756,13 @@
       <c r="F2">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -727,10 +779,13 @@
       <c r="F3">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -747,10 +802,13 @@
       <c r="F4">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -767,10 +825,13 @@
       <c r="F5">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -787,10 +848,13 @@
       <c r="F6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -805,6 +869,9 @@
         <v>332</v>
       </c>
       <c r="F7">
+        <v>329</v>
+      </c>
+      <c r="G7">
         <v>329</v>
       </c>
     </row>
@@ -815,13 +882,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,10 +898,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>373</v>
@@ -842,10 +912,13 @@
       <c r="D2">
         <v>339</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>206</v>
@@ -853,10 +926,13 @@
       <c r="D3">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>573</v>
@@ -864,10 +940,13 @@
       <c r="D4">
         <v>593</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>260</v>
@@ -875,10 +954,13 @@
       <c r="D5">
         <v>226</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>713</v>
@@ -886,10 +968,13 @@
       <c r="D6">
         <v>308</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2422</v>
@@ -899,6 +984,138 @@
       </c>
       <c r="D7">
         <v>1667</v>
+      </c>
+      <c r="E7">
+        <v>1493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/burndown.xlsx
+++ b/burndown.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
   <si>
     <t>2018 Week 18</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>2018 Week 21</t>
+  </si>
+  <si>
+    <t>2018 Week 22</t>
+  </si>
+  <si>
+    <t>2018 Week 23</t>
   </si>
   <si>
     <t>IoT</t>
@@ -411,13 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,10 +436,16 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1165</v>
@@ -447,10 +459,16 @@
       <c r="E2">
         <v>1138</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>842</v>
+      </c>
+      <c r="G2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>579</v>
@@ -464,10 +482,16 @@
       <c r="E3">
         <v>366</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>579</v>
+      </c>
+      <c r="G3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -481,10 +505,16 @@
       <c r="E4">
         <v>1982</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>648</v>
+      </c>
+      <c r="G4">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>300</v>
@@ -498,10 +528,16 @@
       <c r="E5">
         <v>299</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>299</v>
+      </c>
+      <c r="G5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1662</v>
@@ -515,10 +551,16 @@
       <c r="E6">
         <v>1405</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>1031</v>
+      </c>
+      <c r="G6">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>5706</v>
@@ -531,6 +573,12 @@
       </c>
       <c r="E7">
         <v>5190</v>
+      </c>
+      <c r="F7">
+        <v>3399</v>
+      </c>
+      <c r="G7">
+        <v>3399</v>
       </c>
     </row>
   </sheetData>
@@ -539,6 +587,432 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>257</v>
+      </c>
+      <c r="E2">
+        <v>257</v>
+      </c>
+      <c r="F2">
+        <v>257</v>
+      </c>
+      <c r="G2">
+        <v>257</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>407</v>
+      </c>
+      <c r="E3">
+        <v>407</v>
+      </c>
+      <c r="F3">
+        <v>407</v>
+      </c>
+      <c r="G3">
+        <v>407</v>
+      </c>
+      <c r="H3">
+        <v>407</v>
+      </c>
+      <c r="I3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>428</v>
+      </c>
+      <c r="E4">
+        <v>428</v>
+      </c>
+      <c r="F4">
+        <v>428</v>
+      </c>
+      <c r="G4">
+        <v>425</v>
+      </c>
+      <c r="H4">
+        <v>104</v>
+      </c>
+      <c r="I4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>188</v>
+      </c>
+      <c r="E5">
+        <v>188</v>
+      </c>
+      <c r="F5">
+        <v>188</v>
+      </c>
+      <c r="G5">
+        <v>187</v>
+      </c>
+      <c r="H5">
+        <v>187</v>
+      </c>
+      <c r="I5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>278</v>
+      </c>
+      <c r="E6">
+        <v>278</v>
+      </c>
+      <c r="F6">
+        <v>278</v>
+      </c>
+      <c r="G6">
+        <v>278</v>
+      </c>
+      <c r="H6">
+        <v>181</v>
+      </c>
+      <c r="I6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2173</v>
+      </c>
+      <c r="C7">
+        <v>1687</v>
+      </c>
+      <c r="D7">
+        <v>1558</v>
+      </c>
+      <c r="E7">
+        <v>1558</v>
+      </c>
+      <c r="F7">
+        <v>1558</v>
+      </c>
+      <c r="G7">
+        <v>1554</v>
+      </c>
+      <c r="H7">
+        <v>1079</v>
+      </c>
+      <c r="I7">
+        <v>1079</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+      <c r="E2">
+        <v>84</v>
+      </c>
+      <c r="F2">
+        <v>84</v>
+      </c>
+      <c r="G2">
+        <v>84</v>
+      </c>
+      <c r="H2">
+        <v>84</v>
+      </c>
+      <c r="I2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>89</v>
+      </c>
+      <c r="E3">
+        <v>89</v>
+      </c>
+      <c r="F3">
+        <v>89</v>
+      </c>
+      <c r="G3">
+        <v>89</v>
+      </c>
+      <c r="H3">
+        <v>89</v>
+      </c>
+      <c r="I3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>97</v>
+      </c>
+      <c r="E4">
+        <v>97</v>
+      </c>
+      <c r="F4">
+        <v>97</v>
+      </c>
+      <c r="G4">
+        <v>97</v>
+      </c>
+      <c r="H4">
+        <v>97</v>
+      </c>
+      <c r="I4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>327</v>
+      </c>
+      <c r="D7">
+        <v>332</v>
+      </c>
+      <c r="E7">
+        <v>332</v>
+      </c>
+      <c r="F7">
+        <v>329</v>
+      </c>
+      <c r="G7">
+        <v>329</v>
+      </c>
+      <c r="H7">
+        <v>329</v>
+      </c>
+      <c r="I7">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -548,160 +1022,145 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="D2">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="E2">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="F2">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G2">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="D3">
-        <v>407</v>
+        <v>201</v>
       </c>
       <c r="E3">
-        <v>407</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>407</v>
+        <v>43</v>
       </c>
       <c r="G3">
-        <v>407</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="D4">
-        <v>428</v>
+        <v>593</v>
       </c>
       <c r="E4">
-        <v>428</v>
+        <v>587</v>
       </c>
       <c r="F4">
-        <v>428</v>
+        <v>201</v>
       </c>
       <c r="G4">
-        <v>425</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D5">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="E5">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="F5">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="G5">
-        <v>187</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="D6">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="E6">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F6">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="G6">
-        <v>278</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>2173</v>
+        <v>2422</v>
       </c>
       <c r="C7">
-        <v>1687</v>
+        <v>2125</v>
       </c>
       <c r="D7">
-        <v>1558</v>
+        <v>1667</v>
       </c>
       <c r="E7">
-        <v>1558</v>
+        <v>1493</v>
       </c>
       <c r="F7">
-        <v>1558</v>
+        <v>824</v>
       </c>
       <c r="G7">
-        <v>1554</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +1168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -719,27 +1178,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -748,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>84</v>
@@ -762,7 +1221,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -771,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -794,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F4">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G4">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -817,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -840,270 +1299,21 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>327</v>
-      </c>
-      <c r="D7">
-        <v>332</v>
-      </c>
-      <c r="E7">
-        <v>332</v>
-      </c>
-      <c r="F7">
-        <v>329</v>
-      </c>
-      <c r="G7">
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>373</v>
-      </c>
-      <c r="D2">
-        <v>339</v>
-      </c>
-      <c r="E2">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>206</v>
-      </c>
-      <c r="D3">
-        <v>201</v>
-      </c>
-      <c r="E3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>573</v>
-      </c>
-      <c r="D4">
-        <v>593</v>
-      </c>
-      <c r="E4">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>260</v>
-      </c>
-      <c r="D5">
-        <v>226</v>
-      </c>
-      <c r="E5">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>713</v>
-      </c>
-      <c r="D6">
-        <v>308</v>
-      </c>
-      <c r="E6">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2422</v>
-      </c>
-      <c r="C7">
-        <v>2125</v>
-      </c>
-      <c r="D7">
-        <v>1667</v>
-      </c>
-      <c r="E7">
-        <v>1493</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1116,6 +1326,12 @@
       </c>
       <c r="E7">
         <v>271</v>
+      </c>
+      <c r="F7">
+        <v>249</v>
+      </c>
+      <c r="G7">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
